--- a/Statistics table.xlsx
+++ b/Statistics table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB2\Videos\Metaheuristic-benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CCA6FF-6BFB-493D-BDC9-6D8C7E1356D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A2D553-C3D6-436D-8525-78B6E2F83A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{53BEEFDD-3203-4D15-BBC0-6DDE7F8CC76A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
   <si>
     <t>Sphere</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +111,6 @@
     <t>Shubert</t>
   </si>
   <si>
-    <t>SumPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Exponential</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +159,6 @@
   </si>
   <si>
     <t>Zettl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Powell</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -458,10 +450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Powell sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bartels Conn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,27 +466,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Quartic</t>
+    <t>Ellipsoidal</t>
+  </si>
+  <si>
+    <t>Powell sum
+(Sum of different power)</t>
+  </si>
+  <si>
+    <t>Schwefel P2.20
+(SumPower)</t>
+  </si>
+  <si>
+    <t>Schwefel P2.20
+(SumPower)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SumSquare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ellipsoid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k-tablet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Powell's Quartic</t>
+  </si>
+  <si>
+    <t>Quartic
+De-Jong</t>
+  </si>
+  <si>
+    <t>Noncontinuous Rastrigin</t>
+  </si>
+  <si>
+    <t>Fletcher</t>
+  </si>
+  <si>
+    <t>Levy</t>
+  </si>
+  <si>
+    <t>SumSquare
+(Axis Parallel Hyper Ellipsoid)</t>
+  </si>
+  <si>
+    <t>Inverted Cosine Mixture</t>
+  </si>
+  <si>
+    <t>Ellipsoid
+(Elliptic)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -522,12 +540,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -578,17 +590,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,7 +721,8 @@
                   <c:v>Sehwwefel P2.21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Quartic</c:v>
+                  <c:v>Quartic
+De-Jong</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Schwefel P1.2</c:v>
@@ -760,7 +773,8 @@
                   <c:v>Zakharov</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>SumSquare</c:v>
+                  <c:v>SumSquare
+(Axis Parallel Hyper Ellipsoid)</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>Alpine</c:v>
@@ -781,7 +795,8 @@
                   <c:v>Bohachevsky 1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Ellipsoid</c:v>
+                  <c:v>Ellipsoid
+(Elliptic)</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>Drop wave</c:v>
@@ -799,7 +814,8 @@
                   <c:v>Easom</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>Powell sum</c:v>
+                  <c:v>Powell sum
+(Sum of different power)</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>Levy and Montalvo 1</c:v>
@@ -856,7 +872,8 @@
                   <c:v>Pathological</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>SumPower</c:v>
+                  <c:v>Schwefel P2.20
+(SumPower)</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>Booth</c:v>
@@ -865,7 +882,7 @@
                   <c:v>Zettl</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>Powell</c:v>
+                  <c:v>Powell's Quartic</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>Tablet</c:v>
@@ -2013,7 +2030,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>37</xdr:col>
-          <xdr:colOff>449580</xdr:colOff>
+          <xdr:colOff>441960</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>480060</xdr:rowOff>
         </xdr:to>
@@ -2721,16 +2738,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>2246107</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>2521324</xdr:rowOff>
+          <xdr:col>37</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>41</xdr:col>
-          <xdr:colOff>478267</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>220084</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3108,61 +3125,6 @@
         <xdr:from>
           <xdr:col>37</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>480060</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1085" name="Object 61" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1085"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -3436,16 +3398,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>2246107</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>2511014</xdr:rowOff>
+          <xdr:col>37</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>41</xdr:col>
-          <xdr:colOff>310627</xdr:colOff>
+          <xdr:colOff>312420</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>209774</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3730,7 +3692,7 @@
                   <a14:compatExt spid="_x0000_s1140"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D29D1E-5931-43D4-99D4-273C2F831225}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3785,7 +3747,7 @@
                   <a14:compatExt spid="_x0000_s1141"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB243CC2-5D68-49BA-82DE-120A6DC48D45}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3840,7 +3802,7 @@
                   <a14:compatExt spid="_x0000_s1142"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B64BD7B-EBAB-4359-B041-1CAB3DD0D703}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3895,7 +3857,7 @@
                   <a14:compatExt spid="_x0000_s1143"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D572377-0B99-49DD-96E5-49A2839BE22C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3950,7 +3912,7 @@
                   <a14:compatExt spid="_x0000_s1144"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF41BBD2-8FBD-4847-B39E-A1168E158295}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4005,7 +3967,7 @@
                   <a14:compatExt spid="_x0000_s1145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{289E93C6-1039-4158-B3B0-E72D20B87BEB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4060,7 +4022,7 @@
                   <a14:compatExt spid="_x0000_s1146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054A155D-EE18-4231-9EE6-B7E94067DEB8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4115,7 +4077,7 @@
                   <a14:compatExt spid="_x0000_s1148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298F7F7F-A761-4FBA-B559-DB262E89BEFA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4170,7 +4132,7 @@
                   <a14:compatExt spid="_x0000_s1149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C869D036-5F1C-437C-9499-CFD591A2E129}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4225,7 +4187,7 @@
                   <a14:compatExt spid="_x0000_s1150"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CBE761C-3519-4AAD-A359-B412A70EC746}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4280,7 +4242,7 @@
                   <a14:compatExt spid="_x0000_s1151"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BFF734A-35CA-4B11-8D58-6FAD0BA2697F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4335,7 +4297,7 @@
                   <a14:compatExt spid="_x0000_s1152"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03BCF63-847C-494D-848B-F6C50F0AB7BC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4390,7 +4352,7 @@
                   <a14:compatExt spid="_x0000_s1153"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5AA649-0503-4516-A901-5CD8BFD05C83}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4435,7 +4397,7 @@
           <xdr:col>48</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>1507863</xdr:rowOff>
+          <xdr:rowOff>1508760</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4445,7 +4407,7 @@
                   <a14:compatExt spid="_x0000_s1154"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE92BBFA-9E21-4FA3-A4DF-92A80013DACE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4490,7 +4452,7 @@
           <xdr:col>50</xdr:col>
           <xdr:colOff>91440</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>2140324</xdr:rowOff>
+          <xdr:rowOff>2141220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4500,7 +4462,7 @@
                   <a14:compatExt spid="_x0000_s1156"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6DBFDE-8D03-475A-821A-6B96FEEFC3D6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4555,7 +4517,7 @@
                   <a14:compatExt spid="_x0000_s1158"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0ADB496-229B-40EE-A7AB-0FE0F7DF1F50}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4610,7 +4572,7 @@
                   <a14:compatExt spid="_x0000_s1159"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03295685-CF5B-48EF-91D2-665D8A274F7A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4646,7 +4608,7 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
+          <xdr:col>37</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -4665,7 +4627,7 @@
                   <a14:compatExt spid="_x0000_s1160"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B2FB64E-6081-48E6-973D-85A0133C9011}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4720,7 +4682,7 @@
                   <a14:compatExt spid="_x0000_s1163"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B0DEE4-F6D1-4B3C-BFD3-11FCB03E7FB2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4775,7 +4737,7 @@
                   <a14:compatExt spid="_x0000_s1164"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49DE2ECD-8698-406D-AAAE-42ECAC56896D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4830,7 +4792,7 @@
                   <a14:compatExt spid="_x0000_s1165"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7ED2B4-C89A-408B-8040-4B6AE22FB268}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4885,7 +4847,7 @@
                   <a14:compatExt spid="_x0000_s1166"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13ABE856-C06C-4BAB-884C-D03391C3BBCA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4940,7 +4902,7 @@
                   <a14:compatExt spid="_x0000_s1167"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08636FB-4240-4B7E-8EFC-6E125B66EA0E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4995,7 +4957,7 @@
                   <a14:compatExt spid="_x0000_s1168"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB129802-BAE7-44E4-B7CC-E09F993B8F06}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5050,7 +5012,7 @@
                   <a14:compatExt spid="_x0000_s1169"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56D73AC-6E30-4116-9D28-96373484B46F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5105,7 +5067,7 @@
                   <a14:compatExt spid="_x0000_s1170"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71916A3-7AA6-4579-9BB2-F4C584BA0C99}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5160,7 +5122,7 @@
                   <a14:compatExt spid="_x0000_s1171"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E82FDF3-2D76-419B-9724-99801B75DD8D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5215,7 +5177,7 @@
                   <a14:compatExt spid="_x0000_s1172"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E35D6C2-6043-41C1-BFC4-7265ABDD775B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5270,7 +5232,7 @@
                   <a14:compatExt spid="_x0000_s1173"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D32942-0E42-4E5F-9110-A9DB88B62DAF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5325,7 +5287,7 @@
                   <a14:compatExt spid="_x0000_s1174"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D86301C2-BC92-4677-BF0F-C9FB0D915D3C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5380,7 +5342,7 @@
                   <a14:compatExt spid="_x0000_s1175"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF498658-F72A-45A6-BBFB-F3F4FD2A82E8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5435,7 +5397,7 @@
                   <a14:compatExt spid="_x0000_s1176"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E458094-A355-4970-95F7-857237CD1962}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5490,7 +5452,7 @@
                   <a14:compatExt spid="_x0000_s1177"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BCCA5A-2A5F-47E9-B98D-71FECE13019F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5545,7 +5507,62 @@
                   <a14:compatExt spid="_x0000_s1178"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{840A31F7-39A9-44D8-A514-AA19B3822EB9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>37</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>38</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>480060</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1179" name="Object 155" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1179"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{933ADCA8-8722-47F7-9D48-09E2E9EFD724}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5920,21 +5937,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B794D04-4A65-4F2E-B38D-44D1CBB81CC2}">
   <dimension ref="A1:AK97"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A71" sqref="A3:A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="199.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.77734375" style="1" customWidth="1"/>
-    <col min="3" max="37" width="4.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="37" width="4.77734375" style="1" customWidth="1"/>
     <col min="38" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="199.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1" s="2">
         <f t="shared" ref="C1:AK1" si="0">SUM(C3:C97)</f>
@@ -6079,10 +6096,10 @@
     </row>
     <row r="2" spans="1:37" ht="199.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -6195,7 +6212,7 @@
         <f>SUM(C3:AK3)</f>
         <v>35</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1">
@@ -6309,8 +6326,8 @@
         <f t="shared" ref="A4:A67" si="1">SUM(C4:AK4)</f>
         <v>30</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>25</v>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -6408,8 +6425,8 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>63</v>
+      <c r="B5" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -6486,7 +6503,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1">
@@ -6582,7 +6599,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1">
@@ -6651,8 +6668,8 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>70</v>
+      <c r="B8" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -6732,7 +6749,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1">
@@ -6804,8 +6821,8 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>104</v>
+      <c r="B10" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -6924,7 +6941,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1">
@@ -7032,7 +7049,7 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1">
@@ -7137,7 +7154,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1">
@@ -7215,7 +7232,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="1">
@@ -7236,8 +7253,8 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>108</v>
+      <c r="B16" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -7260,8 +7277,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>72</v>
+      <c r="B17" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -7275,7 +7292,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="1">
@@ -7365,7 +7382,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="1">
@@ -7449,7 +7466,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="1">
@@ -7464,7 +7481,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="1">
@@ -7479,8 +7496,8 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>105</v>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -7533,8 +7550,8 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>106</v>
+      <c r="B24" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -7593,8 +7610,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>109</v>
+      <c r="B25" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -7638,8 +7655,8 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>27</v>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H26" s="1">
         <v>1</v>
@@ -7686,8 +7703,8 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>110</v>
+      <c r="B27" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="H27" s="1">
         <v>1</v>
@@ -7737,8 +7754,8 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>41</v>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
@@ -7785,8 +7802,8 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>42</v>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H29" s="1">
         <v>1</v>
@@ -7827,8 +7844,8 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>28</v>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
@@ -7878,8 +7895,8 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>29</v>
+      <c r="B31" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="H31" s="1">
         <v>1</v>
@@ -7926,8 +7943,8 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>30</v>
+      <c r="B32" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="H32" s="1">
         <v>1</v>
@@ -7974,7 +7991,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K33" s="1">
@@ -8004,7 +8021,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K34" s="1">
@@ -8037,7 +8054,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L35" s="1">
@@ -8052,8 +8069,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>111</v>
+      <c r="B36" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="L36" s="1">
         <v>1</v>
@@ -8073,8 +8090,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>43</v>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L37" s="1">
         <v>1</v>
@@ -8106,8 +8123,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>112</v>
+      <c r="B39" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="L39" s="1">
         <v>1</v>
@@ -8118,7 +8135,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K40" s="1">
@@ -8136,8 +8153,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>113</v>
+      <c r="B41" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="L41" s="1">
         <v>1</v>
@@ -8152,7 +8169,7 @@
         <v>8</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -8211,8 +8228,8 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>120</v>
+      <c r="B43" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="N43" s="1">
         <v>1</v>
@@ -8230,7 +8247,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N44" s="1">
         <v>1</v>
@@ -8244,8 +8261,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>119</v>
+      <c r="B45" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="N45" s="1">
         <v>1</v>
@@ -8257,7 +8274,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -8308,8 +8325,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>40</v>
+      <c r="B47" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="N47" s="1">
         <v>1</v>
@@ -8323,8 +8340,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>123</v>
+      <c r="B48" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="K48" s="1">
         <v>1</v>
@@ -8344,8 +8361,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>20</v>
+      <c r="B49" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="T49" s="1">
         <v>1</v>
@@ -8356,8 +8373,8 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>21</v>
+      <c r="B50" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="T50" s="1">
         <v>1</v>
@@ -8380,8 +8397,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>31</v>
+      <c r="B51" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="AD51" s="1">
         <v>1</v>
@@ -8395,8 +8412,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>32</v>
+      <c r="B52" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="AD52" s="1">
         <v>1</v>
@@ -8407,8 +8424,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>33</v>
+      <c r="B53" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="AD53" s="1">
         <v>1</v>
@@ -8422,8 +8439,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>34</v>
+      <c r="B54" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="AD54" s="1">
         <v>1</v>
@@ -8435,7 +8452,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="AE55" s="1">
         <v>1</v>
@@ -8447,7 +8464,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE56" s="1">
         <v>1</v>
@@ -8458,8 +8475,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>37</v>
+      <c r="B57" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="AE57" s="1">
         <v>1</v>
@@ -8470,8 +8487,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>118</v>
+      <c r="B58" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="AE58" s="1">
         <v>1</v>
@@ -8482,8 +8499,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>117</v>
+      <c r="B59" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="AE59" s="1">
         <v>1</v>
@@ -8494,8 +8511,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>45</v>
+      <c r="B60" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="AE60" s="1">
         <v>1</v>
@@ -8506,8 +8523,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>47</v>
+      <c r="B61" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="AE61" s="1">
         <v>1</v>
@@ -8518,8 +8535,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>122</v>
+      <c r="B62" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="AE62" s="1">
         <v>1</v>
@@ -8530,8 +8547,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>121</v>
+      <c r="B63" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="AE63" s="1">
         <v>1</v>
@@ -8542,8 +8559,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>52</v>
+      <c r="B64" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="AE64" s="1">
         <v>1</v>
@@ -8554,8 +8571,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>114</v>
+      <c r="B65" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="AH65" s="1">
         <v>1</v>
@@ -8575,8 +8592,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>116</v>
+      <c r="B66" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="AH66" s="1">
         <v>1</v>
@@ -8590,8 +8607,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>115</v>
+      <c r="B67" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="AH67" s="1">
         <v>1</v>
@@ -8606,7 +8623,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AH68" s="1">
         <v>1</v>
@@ -8626,8 +8643,8 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>58</v>
+      <c r="B69" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="AH69" s="1">
         <v>1</v>
@@ -8644,8 +8661,8 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>60</v>
+      <c r="B70" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="AH70" s="1">
         <v>1</v>
@@ -8666,7 +8683,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AJ71" s="1">
         <v>1</v>
@@ -9393,33 +9410,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1085" r:id="rId48">
+        <oleObject progId="Equation.AxMath" shapeId="1091" r:id="rId48">
           <objectPr defaultSize="0" r:id="rId49">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>480060</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1085" r:id="rId48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1091" r:id="rId50">
-          <objectPr defaultSize="0" r:id="rId51">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9438,13 +9430,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1091" r:id="rId50"/>
+        <oleObject progId="Equation.AxMath" shapeId="1091" r:id="rId48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1095" r:id="rId52">
-          <objectPr defaultSize="0" r:id="rId53">
+        <oleObject progId="Equation.AxMath" shapeId="1095" r:id="rId50">
+          <objectPr defaultSize="0" r:id="rId51">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9463,13 +9455,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1095" r:id="rId52"/>
+        <oleObject progId="Equation.AxMath" shapeId="1095" r:id="rId50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1097" r:id="rId54">
-          <objectPr defaultSize="0" r:id="rId55">
+        <oleObject progId="Equation.AxMath" shapeId="1097" r:id="rId52">
+          <objectPr defaultSize="0" r:id="rId53">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9488,13 +9480,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1097" r:id="rId54"/>
+        <oleObject progId="Equation.AxMath" shapeId="1097" r:id="rId52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1101" r:id="rId56">
-          <objectPr defaultSize="0" r:id="rId57">
+        <oleObject progId="Equation.AxMath" shapeId="1101" r:id="rId54">
+          <objectPr defaultSize="0" r:id="rId55">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9513,13 +9505,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1101" r:id="rId56"/>
+        <oleObject progId="Equation.AxMath" shapeId="1101" r:id="rId54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1103" r:id="rId58">
-          <objectPr defaultSize="0" r:id="rId59">
+        <oleObject progId="Equation.AxMath" shapeId="1103" r:id="rId56">
+          <objectPr defaultSize="0" r:id="rId57">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9538,13 +9530,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1103" r:id="rId58"/>
+        <oleObject progId="Equation.AxMath" shapeId="1103" r:id="rId56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1112" r:id="rId60">
-          <objectPr defaultSize="0" r:id="rId61">
+        <oleObject progId="Equation.AxMath" shapeId="1112" r:id="rId58">
+          <objectPr defaultSize="0" r:id="rId59">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9563,13 +9555,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1112" r:id="rId60"/>
+        <oleObject progId="Equation.AxMath" shapeId="1112" r:id="rId58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1117" r:id="rId62">
-          <objectPr defaultSize="0" r:id="rId63">
+        <oleObject progId="Equation.AxMath" shapeId="1117" r:id="rId60">
+          <objectPr defaultSize="0" r:id="rId61">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9588,13 +9580,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1117" r:id="rId62"/>
+        <oleObject progId="Equation.AxMath" shapeId="1117" r:id="rId60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1127" r:id="rId64">
-          <objectPr defaultSize="0" r:id="rId65">
+        <oleObject progId="Equation.AxMath" shapeId="1127" r:id="rId62">
+          <objectPr defaultSize="0" r:id="rId63">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9613,13 +9605,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1127" r:id="rId64"/>
+        <oleObject progId="Equation.AxMath" shapeId="1127" r:id="rId62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1135" r:id="rId66">
-          <objectPr defaultSize="0" r:id="rId67">
+        <oleObject progId="Equation.AxMath" shapeId="1135" r:id="rId64">
+          <objectPr defaultSize="0" r:id="rId65">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9638,13 +9630,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1135" r:id="rId66"/>
+        <oleObject progId="Equation.AxMath" shapeId="1135" r:id="rId64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1139" r:id="rId68">
-          <objectPr defaultSize="0" r:id="rId69">
+        <oleObject progId="Equation.AxMath" shapeId="1139" r:id="rId66">
+          <objectPr defaultSize="0" r:id="rId67">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9663,13 +9655,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1139" r:id="rId68"/>
+        <oleObject progId="Equation.AxMath" shapeId="1139" r:id="rId66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1140" r:id="rId70">
-          <objectPr defaultSize="0" r:id="rId71">
+        <oleObject progId="Equation.AxMath" shapeId="1140" r:id="rId68">
+          <objectPr defaultSize="0" r:id="rId69">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9688,13 +9680,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1140" r:id="rId70"/>
+        <oleObject progId="Equation.AxMath" shapeId="1140" r:id="rId68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1141" r:id="rId72">
-          <objectPr defaultSize="0" r:id="rId73">
+        <oleObject progId="Equation.AxMath" shapeId="1141" r:id="rId70">
+          <objectPr defaultSize="0" r:id="rId71">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9713,13 +9705,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1141" r:id="rId72"/>
+        <oleObject progId="Equation.AxMath" shapeId="1141" r:id="rId70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1142" r:id="rId74">
-          <objectPr defaultSize="0" r:id="rId75">
+        <oleObject progId="Equation.AxMath" shapeId="1142" r:id="rId72">
+          <objectPr defaultSize="0" r:id="rId73">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9738,13 +9730,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1142" r:id="rId74"/>
+        <oleObject progId="Equation.AxMath" shapeId="1142" r:id="rId72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1143" r:id="rId76">
-          <objectPr defaultSize="0" r:id="rId77">
+        <oleObject progId="Equation.AxMath" shapeId="1143" r:id="rId74">
+          <objectPr defaultSize="0" r:id="rId75">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9763,13 +9755,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1143" r:id="rId76"/>
+        <oleObject progId="Equation.AxMath" shapeId="1143" r:id="rId74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1144" r:id="rId78">
-          <objectPr defaultSize="0" r:id="rId79">
+        <oleObject progId="Equation.AxMath" shapeId="1144" r:id="rId76">
+          <objectPr defaultSize="0" r:id="rId77">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9788,13 +9780,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1144" r:id="rId78"/>
+        <oleObject progId="Equation.AxMath" shapeId="1144" r:id="rId76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1145" r:id="rId80">
-          <objectPr defaultSize="0" r:id="rId81">
+        <oleObject progId="Equation.AxMath" shapeId="1145" r:id="rId78">
+          <objectPr defaultSize="0" r:id="rId79">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9813,13 +9805,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1145" r:id="rId80"/>
+        <oleObject progId="Equation.AxMath" shapeId="1145" r:id="rId78"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1146" r:id="rId82">
-          <objectPr defaultSize="0" r:id="rId83">
+        <oleObject progId="Equation.AxMath" shapeId="1146" r:id="rId80">
+          <objectPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9838,13 +9830,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1146" r:id="rId82"/>
+        <oleObject progId="Equation.AxMath" shapeId="1146" r:id="rId80"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1148" r:id="rId84">
-          <objectPr defaultSize="0" r:id="rId85">
+        <oleObject progId="Equation.AxMath" shapeId="1148" r:id="rId82">
+          <objectPr defaultSize="0" r:id="rId83">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9863,13 +9855,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1148" r:id="rId84"/>
+        <oleObject progId="Equation.AxMath" shapeId="1148" r:id="rId82"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1149" r:id="rId86">
-          <objectPr defaultSize="0" r:id="rId87">
+        <oleObject progId="Equation.AxMath" shapeId="1149" r:id="rId84">
+          <objectPr defaultSize="0" r:id="rId85">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9888,13 +9880,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1149" r:id="rId86"/>
+        <oleObject progId="Equation.AxMath" shapeId="1149" r:id="rId84"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1150" r:id="rId88">
-          <objectPr defaultSize="0" r:id="rId89">
+        <oleObject progId="Equation.AxMath" shapeId="1150" r:id="rId86">
+          <objectPr defaultSize="0" r:id="rId87">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9913,13 +9905,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1150" r:id="rId88"/>
+        <oleObject progId="Equation.AxMath" shapeId="1150" r:id="rId86"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1151" r:id="rId90">
-          <objectPr defaultSize="0" r:id="rId91">
+        <oleObject progId="Equation.AxMath" shapeId="1151" r:id="rId88">
+          <objectPr defaultSize="0" r:id="rId89">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9938,13 +9930,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1151" r:id="rId90"/>
+        <oleObject progId="Equation.AxMath" shapeId="1151" r:id="rId88"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1152" r:id="rId92">
-          <objectPr defaultSize="0" r:id="rId93">
+        <oleObject progId="Equation.AxMath" shapeId="1152" r:id="rId90">
+          <objectPr defaultSize="0" r:id="rId91">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9963,13 +9955,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1152" r:id="rId92"/>
+        <oleObject progId="Equation.AxMath" shapeId="1152" r:id="rId90"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1153" r:id="rId94">
-          <objectPr defaultSize="0" r:id="rId95">
+        <oleObject progId="Equation.AxMath" shapeId="1153" r:id="rId92">
+          <objectPr defaultSize="0" r:id="rId93">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9988,13 +9980,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1153" r:id="rId94"/>
+        <oleObject progId="Equation.AxMath" shapeId="1153" r:id="rId92"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1154" r:id="rId96">
-          <objectPr defaultSize="0" r:id="rId97">
+        <oleObject progId="Equation.AxMath" shapeId="1154" r:id="rId94">
+          <objectPr defaultSize="0" r:id="rId95">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10013,13 +10005,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1154" r:id="rId96"/>
+        <oleObject progId="Equation.AxMath" shapeId="1154" r:id="rId94"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1156" r:id="rId98">
-          <objectPr defaultSize="0" r:id="rId99">
+        <oleObject progId="Equation.AxMath" shapeId="1156" r:id="rId96">
+          <objectPr defaultSize="0" r:id="rId97">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10038,13 +10030,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1156" r:id="rId98"/>
+        <oleObject progId="Equation.AxMath" shapeId="1156" r:id="rId96"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1158" r:id="rId100">
-          <objectPr defaultSize="0" r:id="rId101">
+        <oleObject progId="Equation.AxMath" shapeId="1158" r:id="rId98">
+          <objectPr defaultSize="0" r:id="rId99">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10063,13 +10055,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1158" r:id="rId100"/>
+        <oleObject progId="Equation.AxMath" shapeId="1158" r:id="rId98"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1159" r:id="rId102">
-          <objectPr defaultSize="0" r:id="rId103">
+        <oleObject progId="Equation.AxMath" shapeId="1159" r:id="rId100">
+          <objectPr defaultSize="0" r:id="rId101">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10088,13 +10080,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1159" r:id="rId102"/>
+        <oleObject progId="Equation.AxMath" shapeId="1159" r:id="rId100"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1160" r:id="rId104">
-          <objectPr defaultSize="0" r:id="rId105">
+        <oleObject progId="Equation.AxMath" shapeId="1160" r:id="rId102">
+          <objectPr defaultSize="0" r:id="rId103">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10113,13 +10105,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1160" r:id="rId104"/>
+        <oleObject progId="Equation.AxMath" shapeId="1160" r:id="rId102"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1163" r:id="rId106">
-          <objectPr defaultSize="0" r:id="rId107">
+        <oleObject progId="Equation.AxMath" shapeId="1163" r:id="rId104">
+          <objectPr defaultSize="0" r:id="rId105">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10138,13 +10130,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1163" r:id="rId106"/>
+        <oleObject progId="Equation.AxMath" shapeId="1163" r:id="rId104"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1164" r:id="rId108">
-          <objectPr defaultSize="0" r:id="rId109">
+        <oleObject progId="Equation.AxMath" shapeId="1164" r:id="rId106">
+          <objectPr defaultSize="0" r:id="rId107">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10163,13 +10155,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1164" r:id="rId108"/>
+        <oleObject progId="Equation.AxMath" shapeId="1164" r:id="rId106"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1165" r:id="rId110">
-          <objectPr defaultSize="0" r:id="rId111">
+        <oleObject progId="Equation.AxMath" shapeId="1165" r:id="rId108">
+          <objectPr defaultSize="0" r:id="rId109">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10188,13 +10180,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1165" r:id="rId110"/>
+        <oleObject progId="Equation.AxMath" shapeId="1165" r:id="rId108"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1166" r:id="rId112">
-          <objectPr defaultSize="0" r:id="rId113">
+        <oleObject progId="Equation.AxMath" shapeId="1166" r:id="rId110">
+          <objectPr defaultSize="0" r:id="rId111">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10213,13 +10205,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1166" r:id="rId112"/>
+        <oleObject progId="Equation.AxMath" shapeId="1166" r:id="rId110"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1167" r:id="rId114">
-          <objectPr defaultSize="0" r:id="rId115">
+        <oleObject progId="Equation.AxMath" shapeId="1167" r:id="rId112">
+          <objectPr defaultSize="0" r:id="rId113">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10238,13 +10230,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1167" r:id="rId114"/>
+        <oleObject progId="Equation.AxMath" shapeId="1167" r:id="rId112"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1168" r:id="rId116">
-          <objectPr defaultSize="0" r:id="rId117">
+        <oleObject progId="Equation.AxMath" shapeId="1168" r:id="rId114">
+          <objectPr defaultSize="0" r:id="rId115">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10263,13 +10255,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1168" r:id="rId116"/>
+        <oleObject progId="Equation.AxMath" shapeId="1168" r:id="rId114"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1169" r:id="rId118">
-          <objectPr defaultSize="0" r:id="rId119">
+        <oleObject progId="Equation.AxMath" shapeId="1169" r:id="rId116">
+          <objectPr defaultSize="0" r:id="rId117">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10288,13 +10280,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1169" r:id="rId118"/>
+        <oleObject progId="Equation.AxMath" shapeId="1169" r:id="rId116"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1170" r:id="rId120">
-          <objectPr defaultSize="0" r:id="rId121">
+        <oleObject progId="Equation.AxMath" shapeId="1170" r:id="rId118">
+          <objectPr defaultSize="0" r:id="rId119">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10313,13 +10305,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1170" r:id="rId120"/>
+        <oleObject progId="Equation.AxMath" shapeId="1170" r:id="rId118"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1171" r:id="rId122">
-          <objectPr defaultSize="0" r:id="rId123">
+        <oleObject progId="Equation.AxMath" shapeId="1171" r:id="rId120">
+          <objectPr defaultSize="0" r:id="rId121">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10338,13 +10330,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1171" r:id="rId122"/>
+        <oleObject progId="Equation.AxMath" shapeId="1171" r:id="rId120"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1172" r:id="rId124">
-          <objectPr defaultSize="0" r:id="rId125">
+        <oleObject progId="Equation.AxMath" shapeId="1172" r:id="rId122">
+          <objectPr defaultSize="0" r:id="rId123">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10363,13 +10355,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1172" r:id="rId124"/>
+        <oleObject progId="Equation.AxMath" shapeId="1172" r:id="rId122"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1173" r:id="rId126">
-          <objectPr defaultSize="0" r:id="rId127">
+        <oleObject progId="Equation.AxMath" shapeId="1173" r:id="rId124">
+          <objectPr defaultSize="0" r:id="rId125">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10388,13 +10380,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1173" r:id="rId126"/>
+        <oleObject progId="Equation.AxMath" shapeId="1173" r:id="rId124"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1174" r:id="rId128">
-          <objectPr defaultSize="0" r:id="rId129">
+        <oleObject progId="Equation.AxMath" shapeId="1174" r:id="rId126">
+          <objectPr defaultSize="0" r:id="rId127">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10413,13 +10405,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1174" r:id="rId128"/>
+        <oleObject progId="Equation.AxMath" shapeId="1174" r:id="rId126"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1175" r:id="rId130">
-          <objectPr defaultSize="0" r:id="rId131">
+        <oleObject progId="Equation.AxMath" shapeId="1175" r:id="rId128">
+          <objectPr defaultSize="0" r:id="rId129">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10438,13 +10430,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1175" r:id="rId130"/>
+        <oleObject progId="Equation.AxMath" shapeId="1175" r:id="rId128"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1176" r:id="rId132">
-          <objectPr defaultSize="0" r:id="rId133">
+        <oleObject progId="Equation.AxMath" shapeId="1176" r:id="rId130">
+          <objectPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10463,13 +10455,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1176" r:id="rId132"/>
+        <oleObject progId="Equation.AxMath" shapeId="1176" r:id="rId130"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1177" r:id="rId134">
-          <objectPr defaultSize="0" r:id="rId135">
+        <oleObject progId="Equation.AxMath" shapeId="1177" r:id="rId132">
+          <objectPr defaultSize="0" r:id="rId133">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10488,13 +10480,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1177" r:id="rId134"/>
+        <oleObject progId="Equation.AxMath" shapeId="1177" r:id="rId132"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1178" r:id="rId136">
-          <objectPr defaultSize="0" r:id="rId137">
+        <oleObject progId="Equation.AxMath" shapeId="1178" r:id="rId134">
+          <objectPr defaultSize="0" r:id="rId135">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10513,7 +10505,32 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1178" r:id="rId136"/>
+        <oleObject progId="Equation.AxMath" shapeId="1178" r:id="rId134"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1179" r:id="rId136">
+          <objectPr defaultSize="0" r:id="rId137">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>37</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>38</xdr:col>
+                <xdr:colOff>15240</xdr:colOff>
+                <xdr:row>48</xdr:row>
+                <xdr:rowOff>480060</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1179" r:id="rId136"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -10525,580 +10542,580 @@
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="3" max="3" width="8.88671875" style="5"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="B7" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="B11" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="B12" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B14" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="B48" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="B62" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="B69" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" s="1">
+      <c r="B70" s="8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B70">
-    <sortCondition descending="1" ref="B2:B70"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B71">
+    <sortCondition descending="1" ref="B1:B71"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Statistics table.xlsx
+++ b/Statistics table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB2\Videos\Metaheuristic-benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB2\Documents\GitHub\Metaheuristic-benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A2D553-C3D6-436D-8525-78B6E2F83A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9F995C-4FBE-4BB2-B8AF-C2C0DB4A181C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{53BEEFDD-3203-4D15-BBC0-6DDE7F8CC76A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53BEEFDD-3203-4D15-BBC0-6DDE7F8CC76A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2080,61 +2080,6 @@
         <xdr:from>
           <xdr:col>37</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1033" name="Object 9" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1033"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -3840,61 +3785,6 @@
         <xdr:from>
           <xdr:col>37</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1143" name="Object 119" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1143"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -5160,116 +5050,6 @@
         <xdr:from>
           <xdr:col>37</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>69</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>45</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
-          <xdr:row>69</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1172" name="Object 148" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1172"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>68</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>45</xdr:col>
-          <xdr:colOff>350520</xdr:colOff>
-          <xdr:row>68</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1173" name="Object 149" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1173"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
           <xdr:row>65</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -5562,7 +5342,227 @@
                   <a14:compatExt spid="_x0000_s1179"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{933ADCA8-8722-47F7-9D48-09E2E9EFD724}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>37</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>480060</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1180" name="Object 156" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1180"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170BDBBF-537F-4D20-B01F-3CE3CC756C2E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>37</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>38</xdr:col>
+          <xdr:colOff>541020</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>480060</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1181" name="Object 157" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1181"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63379EA2-7463-475C-8045-CD0813C6108A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>37</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>46</xdr:col>
+          <xdr:colOff>45720</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>495300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1182" name="Object 158" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1182"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A00CF60-0AF5-4469-82F8-8164AC9D65C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>37</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>45</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>495300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1183" name="Object 159" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1183"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B03ED1-5205-49A6-B751-0BA73A648BEB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5937,8 +5937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B794D04-4A65-4F2E-B38D-44D1CBB81CC2}">
   <dimension ref="A1:AK97"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A71" sqref="A3:A71"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL70" sqref="AL70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="199.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8935,33 +8935,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1033" r:id="rId10">
+        <oleObject progId="Equation.AxMath" shapeId="1036" r:id="rId10">
           <objectPr defaultSize="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1033" r:id="rId10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1036" r:id="rId12">
-          <objectPr defaultSize="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -8980,13 +8955,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1036" r:id="rId12"/>
+        <oleObject progId="Equation.AxMath" shapeId="1036" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1037" r:id="rId14">
-          <objectPr defaultSize="0" r:id="rId15">
+        <oleObject progId="Equation.AxMath" shapeId="1037" r:id="rId12">
+          <objectPr defaultSize="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9005,13 +8980,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1037" r:id="rId14"/>
+        <oleObject progId="Equation.AxMath" shapeId="1037" r:id="rId12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1038" r:id="rId16">
-          <objectPr defaultSize="0" r:id="rId17">
+        <oleObject progId="Equation.AxMath" shapeId="1038" r:id="rId14">
+          <objectPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9030,13 +9005,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1038" r:id="rId16"/>
+        <oleObject progId="Equation.AxMath" shapeId="1038" r:id="rId14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1040" r:id="rId18">
-          <objectPr defaultSize="0" r:id="rId19">
+        <oleObject progId="Equation.AxMath" shapeId="1040" r:id="rId16">
+          <objectPr defaultSize="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9055,13 +9030,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1040" r:id="rId18"/>
+        <oleObject progId="Equation.AxMath" shapeId="1040" r:id="rId16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1041" r:id="rId20">
-          <objectPr defaultSize="0" r:id="rId21">
+        <oleObject progId="Equation.AxMath" shapeId="1041" r:id="rId18">
+          <objectPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9080,13 +9055,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1041" r:id="rId20"/>
+        <oleObject progId="Equation.AxMath" shapeId="1041" r:id="rId18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1042" r:id="rId22">
-          <objectPr defaultSize="0" r:id="rId23">
+        <oleObject progId="Equation.AxMath" shapeId="1042" r:id="rId20">
+          <objectPr defaultSize="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9105,13 +9080,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1042" r:id="rId22"/>
+        <oleObject progId="Equation.AxMath" shapeId="1042" r:id="rId20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1043" r:id="rId24">
-          <objectPr defaultSize="0" r:id="rId25">
+        <oleObject progId="Equation.AxMath" shapeId="1043" r:id="rId22">
+          <objectPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9130,13 +9105,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1043" r:id="rId24"/>
+        <oleObject progId="Equation.AxMath" shapeId="1043" r:id="rId22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1046" r:id="rId26">
-          <objectPr defaultSize="0" r:id="rId27">
+        <oleObject progId="Equation.AxMath" shapeId="1046" r:id="rId24">
+          <objectPr defaultSize="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9155,13 +9130,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1046" r:id="rId26"/>
+        <oleObject progId="Equation.AxMath" shapeId="1046" r:id="rId24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1048" r:id="rId28">
-          <objectPr defaultSize="0" r:id="rId29">
+        <oleObject progId="Equation.AxMath" shapeId="1048" r:id="rId26">
+          <objectPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9180,13 +9155,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1048" r:id="rId28"/>
+        <oleObject progId="Equation.AxMath" shapeId="1048" r:id="rId26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1051" r:id="rId30">
-          <objectPr defaultSize="0" r:id="rId31">
+        <oleObject progId="Equation.AxMath" shapeId="1051" r:id="rId28">
+          <objectPr defaultSize="0" r:id="rId29">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9205,13 +9180,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1051" r:id="rId30"/>
+        <oleObject progId="Equation.AxMath" shapeId="1051" r:id="rId28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1061" r:id="rId32">
-          <objectPr defaultSize="0" r:id="rId33">
+        <oleObject progId="Equation.AxMath" shapeId="1061" r:id="rId30">
+          <objectPr defaultSize="0" r:id="rId31">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9230,13 +9205,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1061" r:id="rId32"/>
+        <oleObject progId="Equation.AxMath" shapeId="1061" r:id="rId30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1063" r:id="rId34">
-          <objectPr defaultSize="0" r:id="rId35">
+        <oleObject progId="Equation.AxMath" shapeId="1063" r:id="rId32">
+          <objectPr defaultSize="0" r:id="rId33">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9255,13 +9230,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1063" r:id="rId34"/>
+        <oleObject progId="Equation.AxMath" shapeId="1063" r:id="rId32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1066" r:id="rId36">
-          <objectPr defaultSize="0" r:id="rId37">
+        <oleObject progId="Equation.AxMath" shapeId="1066" r:id="rId34">
+          <objectPr defaultSize="0" r:id="rId35">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9280,13 +9255,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1066" r:id="rId36"/>
+        <oleObject progId="Equation.AxMath" shapeId="1066" r:id="rId34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1067" r:id="rId38">
-          <objectPr defaultSize="0" r:id="rId39">
+        <oleObject progId="Equation.AxMath" shapeId="1067" r:id="rId36">
+          <objectPr defaultSize="0" r:id="rId37">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9305,13 +9280,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1067" r:id="rId38"/>
+        <oleObject progId="Equation.AxMath" shapeId="1067" r:id="rId36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1068" r:id="rId40">
-          <objectPr defaultSize="0" r:id="rId41">
+        <oleObject progId="Equation.AxMath" shapeId="1068" r:id="rId38">
+          <objectPr defaultSize="0" r:id="rId39">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9330,13 +9305,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1068" r:id="rId40"/>
+        <oleObject progId="Equation.AxMath" shapeId="1068" r:id="rId38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1074" r:id="rId42">
-          <objectPr defaultSize="0" r:id="rId43">
+        <oleObject progId="Equation.AxMath" shapeId="1074" r:id="rId40">
+          <objectPr defaultSize="0" r:id="rId41">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9355,13 +9330,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1074" r:id="rId42"/>
+        <oleObject progId="Equation.AxMath" shapeId="1074" r:id="rId40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1077" r:id="rId44">
-          <objectPr defaultSize="0" r:id="rId45">
+        <oleObject progId="Equation.AxMath" shapeId="1077" r:id="rId42">
+          <objectPr defaultSize="0" r:id="rId43">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9380,13 +9355,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1077" r:id="rId44"/>
+        <oleObject progId="Equation.AxMath" shapeId="1077" r:id="rId42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1083" r:id="rId46">
-          <objectPr defaultSize="0" r:id="rId47">
+        <oleObject progId="Equation.AxMath" shapeId="1083" r:id="rId44">
+          <objectPr defaultSize="0" r:id="rId45">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9405,13 +9380,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1083" r:id="rId46"/>
+        <oleObject progId="Equation.AxMath" shapeId="1083" r:id="rId44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1091" r:id="rId48">
-          <objectPr defaultSize="0" r:id="rId49">
+        <oleObject progId="Equation.AxMath" shapeId="1091" r:id="rId46">
+          <objectPr defaultSize="0" r:id="rId47">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9430,13 +9405,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1091" r:id="rId48"/>
+        <oleObject progId="Equation.AxMath" shapeId="1091" r:id="rId46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1095" r:id="rId50">
-          <objectPr defaultSize="0" r:id="rId51">
+        <oleObject progId="Equation.AxMath" shapeId="1095" r:id="rId48">
+          <objectPr defaultSize="0" r:id="rId49">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9455,13 +9430,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1095" r:id="rId50"/>
+        <oleObject progId="Equation.AxMath" shapeId="1095" r:id="rId48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1097" r:id="rId52">
-          <objectPr defaultSize="0" r:id="rId53">
+        <oleObject progId="Equation.AxMath" shapeId="1097" r:id="rId50">
+          <objectPr defaultSize="0" r:id="rId51">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9480,13 +9455,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1097" r:id="rId52"/>
+        <oleObject progId="Equation.AxMath" shapeId="1097" r:id="rId50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1101" r:id="rId54">
-          <objectPr defaultSize="0" r:id="rId55">
+        <oleObject progId="Equation.AxMath" shapeId="1101" r:id="rId52">
+          <objectPr defaultSize="0" r:id="rId53">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9505,13 +9480,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1101" r:id="rId54"/>
+        <oleObject progId="Equation.AxMath" shapeId="1101" r:id="rId52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1103" r:id="rId56">
-          <objectPr defaultSize="0" r:id="rId57">
+        <oleObject progId="Equation.AxMath" shapeId="1103" r:id="rId54">
+          <objectPr defaultSize="0" r:id="rId55">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9530,13 +9505,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1103" r:id="rId56"/>
+        <oleObject progId="Equation.AxMath" shapeId="1103" r:id="rId54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1112" r:id="rId58">
-          <objectPr defaultSize="0" r:id="rId59">
+        <oleObject progId="Equation.AxMath" shapeId="1112" r:id="rId56">
+          <objectPr defaultSize="0" r:id="rId57">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9555,13 +9530,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1112" r:id="rId58"/>
+        <oleObject progId="Equation.AxMath" shapeId="1112" r:id="rId56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1117" r:id="rId60">
-          <objectPr defaultSize="0" r:id="rId61">
+        <oleObject progId="Equation.AxMath" shapeId="1117" r:id="rId58">
+          <objectPr defaultSize="0" r:id="rId59">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9580,13 +9555,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1117" r:id="rId60"/>
+        <oleObject progId="Equation.AxMath" shapeId="1117" r:id="rId58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1127" r:id="rId62">
-          <objectPr defaultSize="0" r:id="rId63">
+        <oleObject progId="Equation.AxMath" shapeId="1127" r:id="rId60">
+          <objectPr defaultSize="0" r:id="rId61">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9605,13 +9580,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1127" r:id="rId62"/>
+        <oleObject progId="Equation.AxMath" shapeId="1127" r:id="rId60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1135" r:id="rId64">
-          <objectPr defaultSize="0" r:id="rId65">
+        <oleObject progId="Equation.AxMath" shapeId="1135" r:id="rId62">
+          <objectPr defaultSize="0" r:id="rId63">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9630,13 +9605,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1135" r:id="rId64"/>
+        <oleObject progId="Equation.AxMath" shapeId="1135" r:id="rId62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1139" r:id="rId66">
-          <objectPr defaultSize="0" r:id="rId67">
+        <oleObject progId="Equation.AxMath" shapeId="1139" r:id="rId64">
+          <objectPr defaultSize="0" r:id="rId65">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9655,13 +9630,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1139" r:id="rId66"/>
+        <oleObject progId="Equation.AxMath" shapeId="1139" r:id="rId64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1140" r:id="rId68">
-          <objectPr defaultSize="0" r:id="rId69">
+        <oleObject progId="Equation.AxMath" shapeId="1140" r:id="rId66">
+          <objectPr defaultSize="0" r:id="rId67">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9680,13 +9655,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1140" r:id="rId68"/>
+        <oleObject progId="Equation.AxMath" shapeId="1140" r:id="rId66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1141" r:id="rId70">
-          <objectPr defaultSize="0" r:id="rId71">
+        <oleObject progId="Equation.AxMath" shapeId="1141" r:id="rId68">
+          <objectPr defaultSize="0" r:id="rId69">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9705,13 +9680,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1141" r:id="rId70"/>
+        <oleObject progId="Equation.AxMath" shapeId="1141" r:id="rId68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1142" r:id="rId72">
-          <objectPr defaultSize="0" r:id="rId73">
+        <oleObject progId="Equation.AxMath" shapeId="1142" r:id="rId70">
+          <objectPr defaultSize="0" r:id="rId71">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9730,38 +9705,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1142" r:id="rId72"/>
+        <oleObject progId="Equation.AxMath" shapeId="1142" r:id="rId70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1143" r:id="rId74">
-          <objectPr defaultSize="0" r:id="rId75">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1143" r:id="rId74"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1144" r:id="rId76">
-          <objectPr defaultSize="0" r:id="rId77">
+        <oleObject progId="Equation.AxMath" shapeId="1144" r:id="rId72">
+          <objectPr defaultSize="0" r:id="rId73">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9780,13 +9730,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1144" r:id="rId76"/>
+        <oleObject progId="Equation.AxMath" shapeId="1144" r:id="rId72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1145" r:id="rId78">
-          <objectPr defaultSize="0" r:id="rId79">
+        <oleObject progId="Equation.AxMath" shapeId="1145" r:id="rId74">
+          <objectPr defaultSize="0" r:id="rId75">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9805,13 +9755,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1145" r:id="rId78"/>
+        <oleObject progId="Equation.AxMath" shapeId="1145" r:id="rId74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1146" r:id="rId80">
-          <objectPr defaultSize="0" r:id="rId81">
+        <oleObject progId="Equation.AxMath" shapeId="1146" r:id="rId76">
+          <objectPr defaultSize="0" r:id="rId77">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9830,13 +9780,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1146" r:id="rId80"/>
+        <oleObject progId="Equation.AxMath" shapeId="1146" r:id="rId76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1148" r:id="rId82">
-          <objectPr defaultSize="0" r:id="rId83">
+        <oleObject progId="Equation.AxMath" shapeId="1148" r:id="rId78">
+          <objectPr defaultSize="0" r:id="rId79">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9855,13 +9805,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1148" r:id="rId82"/>
+        <oleObject progId="Equation.AxMath" shapeId="1148" r:id="rId78"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1149" r:id="rId84">
-          <objectPr defaultSize="0" r:id="rId85">
+        <oleObject progId="Equation.AxMath" shapeId="1149" r:id="rId80">
+          <objectPr defaultSize="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9880,13 +9830,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1149" r:id="rId84"/>
+        <oleObject progId="Equation.AxMath" shapeId="1149" r:id="rId80"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1150" r:id="rId86">
-          <objectPr defaultSize="0" r:id="rId87">
+        <oleObject progId="Equation.AxMath" shapeId="1150" r:id="rId82">
+          <objectPr defaultSize="0" r:id="rId83">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9905,13 +9855,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1150" r:id="rId86"/>
+        <oleObject progId="Equation.AxMath" shapeId="1150" r:id="rId82"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1151" r:id="rId88">
-          <objectPr defaultSize="0" r:id="rId89">
+        <oleObject progId="Equation.AxMath" shapeId="1151" r:id="rId84">
+          <objectPr defaultSize="0" r:id="rId85">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9930,13 +9880,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1151" r:id="rId88"/>
+        <oleObject progId="Equation.AxMath" shapeId="1151" r:id="rId84"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1152" r:id="rId90">
-          <objectPr defaultSize="0" r:id="rId91">
+        <oleObject progId="Equation.AxMath" shapeId="1152" r:id="rId86">
+          <objectPr defaultSize="0" r:id="rId87">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9955,13 +9905,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1152" r:id="rId90"/>
+        <oleObject progId="Equation.AxMath" shapeId="1152" r:id="rId86"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1153" r:id="rId92">
-          <objectPr defaultSize="0" r:id="rId93">
+        <oleObject progId="Equation.AxMath" shapeId="1153" r:id="rId88">
+          <objectPr defaultSize="0" r:id="rId89">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -9980,13 +9930,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1153" r:id="rId92"/>
+        <oleObject progId="Equation.AxMath" shapeId="1153" r:id="rId88"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1154" r:id="rId94">
-          <objectPr defaultSize="0" r:id="rId95">
+        <oleObject progId="Equation.AxMath" shapeId="1154" r:id="rId90">
+          <objectPr defaultSize="0" r:id="rId91">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10005,13 +9955,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1154" r:id="rId94"/>
+        <oleObject progId="Equation.AxMath" shapeId="1154" r:id="rId90"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1156" r:id="rId96">
-          <objectPr defaultSize="0" r:id="rId97">
+        <oleObject progId="Equation.AxMath" shapeId="1156" r:id="rId92">
+          <objectPr defaultSize="0" r:id="rId93">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10030,13 +9980,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1156" r:id="rId96"/>
+        <oleObject progId="Equation.AxMath" shapeId="1156" r:id="rId92"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1158" r:id="rId98">
-          <objectPr defaultSize="0" r:id="rId99">
+        <oleObject progId="Equation.AxMath" shapeId="1158" r:id="rId94">
+          <objectPr defaultSize="0" r:id="rId95">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10055,13 +10005,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1158" r:id="rId98"/>
+        <oleObject progId="Equation.AxMath" shapeId="1158" r:id="rId94"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1159" r:id="rId100">
-          <objectPr defaultSize="0" r:id="rId101">
+        <oleObject progId="Equation.AxMath" shapeId="1159" r:id="rId96">
+          <objectPr defaultSize="0" r:id="rId97">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10080,13 +10030,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1159" r:id="rId100"/>
+        <oleObject progId="Equation.AxMath" shapeId="1159" r:id="rId96"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1160" r:id="rId102">
-          <objectPr defaultSize="0" r:id="rId103">
+        <oleObject progId="Equation.AxMath" shapeId="1160" r:id="rId98">
+          <objectPr defaultSize="0" r:id="rId99">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10105,13 +10055,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1160" r:id="rId102"/>
+        <oleObject progId="Equation.AxMath" shapeId="1160" r:id="rId98"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1163" r:id="rId104">
-          <objectPr defaultSize="0" r:id="rId105">
+        <oleObject progId="Equation.AxMath" shapeId="1163" r:id="rId100">
+          <objectPr defaultSize="0" r:id="rId101">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10130,13 +10080,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1163" r:id="rId104"/>
+        <oleObject progId="Equation.AxMath" shapeId="1163" r:id="rId100"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1164" r:id="rId106">
-          <objectPr defaultSize="0" r:id="rId107">
+        <oleObject progId="Equation.AxMath" shapeId="1164" r:id="rId102">
+          <objectPr defaultSize="0" r:id="rId103">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10155,13 +10105,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1164" r:id="rId106"/>
+        <oleObject progId="Equation.AxMath" shapeId="1164" r:id="rId102"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1165" r:id="rId108">
-          <objectPr defaultSize="0" r:id="rId109">
+        <oleObject progId="Equation.AxMath" shapeId="1165" r:id="rId104">
+          <objectPr defaultSize="0" r:id="rId105">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10180,13 +10130,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1165" r:id="rId108"/>
+        <oleObject progId="Equation.AxMath" shapeId="1165" r:id="rId104"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1166" r:id="rId110">
-          <objectPr defaultSize="0" r:id="rId111">
+        <oleObject progId="Equation.AxMath" shapeId="1166" r:id="rId106">
+          <objectPr defaultSize="0" r:id="rId107">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10205,13 +10155,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1166" r:id="rId110"/>
+        <oleObject progId="Equation.AxMath" shapeId="1166" r:id="rId106"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1167" r:id="rId112">
-          <objectPr defaultSize="0" r:id="rId113">
+        <oleObject progId="Equation.AxMath" shapeId="1167" r:id="rId108">
+          <objectPr defaultSize="0" r:id="rId109">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10230,13 +10180,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1167" r:id="rId112"/>
+        <oleObject progId="Equation.AxMath" shapeId="1167" r:id="rId108"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1168" r:id="rId114">
-          <objectPr defaultSize="0" r:id="rId115">
+        <oleObject progId="Equation.AxMath" shapeId="1168" r:id="rId110">
+          <objectPr defaultSize="0" r:id="rId111">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10255,13 +10205,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1168" r:id="rId114"/>
+        <oleObject progId="Equation.AxMath" shapeId="1168" r:id="rId110"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1169" r:id="rId116">
-          <objectPr defaultSize="0" r:id="rId117">
+        <oleObject progId="Equation.AxMath" shapeId="1169" r:id="rId112">
+          <objectPr defaultSize="0" r:id="rId113">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10280,13 +10230,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1169" r:id="rId116"/>
+        <oleObject progId="Equation.AxMath" shapeId="1169" r:id="rId112"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1170" r:id="rId118">
-          <objectPr defaultSize="0" r:id="rId119">
+        <oleObject progId="Equation.AxMath" shapeId="1170" r:id="rId114">
+          <objectPr defaultSize="0" r:id="rId115">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10305,13 +10255,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1170" r:id="rId118"/>
+        <oleObject progId="Equation.AxMath" shapeId="1170" r:id="rId114"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1171" r:id="rId120">
-          <objectPr defaultSize="0" r:id="rId121">
+        <oleObject progId="Equation.AxMath" shapeId="1171" r:id="rId116">
+          <objectPr defaultSize="0" r:id="rId117">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10330,63 +10280,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1171" r:id="rId120"/>
+        <oleObject progId="Equation.AxMath" shapeId="1171" r:id="rId116"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1172" r:id="rId122">
-          <objectPr defaultSize="0" r:id="rId123">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>45</xdr:col>
-                <xdr:colOff>99060</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1172" r:id="rId122"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1173" r:id="rId124">
-          <objectPr defaultSize="0" r:id="rId125">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>45</xdr:col>
-                <xdr:colOff>350520</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1173" r:id="rId124"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1174" r:id="rId126">
-          <objectPr defaultSize="0" r:id="rId127">
+        <oleObject progId="Equation.AxMath" shapeId="1174" r:id="rId118">
+          <objectPr defaultSize="0" r:id="rId119">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10405,13 +10305,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1174" r:id="rId126"/>
+        <oleObject progId="Equation.AxMath" shapeId="1174" r:id="rId118"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1175" r:id="rId128">
-          <objectPr defaultSize="0" r:id="rId129">
+        <oleObject progId="Equation.AxMath" shapeId="1175" r:id="rId120">
+          <objectPr defaultSize="0" r:id="rId121">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10430,13 +10330,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1175" r:id="rId128"/>
+        <oleObject progId="Equation.AxMath" shapeId="1175" r:id="rId120"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1176" r:id="rId130">
-          <objectPr defaultSize="0" r:id="rId131">
+        <oleObject progId="Equation.AxMath" shapeId="1176" r:id="rId122">
+          <objectPr defaultSize="0" r:id="rId123">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10455,13 +10355,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1176" r:id="rId130"/>
+        <oleObject progId="Equation.AxMath" shapeId="1176" r:id="rId122"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1177" r:id="rId132">
-          <objectPr defaultSize="0" r:id="rId133">
+        <oleObject progId="Equation.AxMath" shapeId="1177" r:id="rId124">
+          <objectPr defaultSize="0" r:id="rId125">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10480,13 +10380,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1177" r:id="rId132"/>
+        <oleObject progId="Equation.AxMath" shapeId="1177" r:id="rId124"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1178" r:id="rId134">
-          <objectPr defaultSize="0" r:id="rId135">
+        <oleObject progId="Equation.AxMath" shapeId="1178" r:id="rId126">
+          <objectPr defaultSize="0" r:id="rId127">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10505,13 +10405,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1178" r:id="rId134"/>
+        <oleObject progId="Equation.AxMath" shapeId="1178" r:id="rId126"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1179" r:id="rId136">
-          <objectPr defaultSize="0" r:id="rId137">
+        <oleObject progId="Equation.AxMath" shapeId="1179" r:id="rId128">
+          <objectPr defaultSize="0" r:id="rId129">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>37</xdr:col>
@@ -10530,7 +10430,107 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1179" r:id="rId136"/>
+        <oleObject progId="Equation.AxMath" shapeId="1179" r:id="rId128"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1180" r:id="rId130">
+          <objectPr defaultSize="0" r:id="rId131">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>37</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>30480</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>480060</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1180" r:id="rId130"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1181" r:id="rId132">
+          <objectPr defaultSize="0" r:id="rId133">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>37</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>38</xdr:col>
+                <xdr:colOff>541020</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>480060</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1181" r:id="rId132"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1182" r:id="rId134">
+          <objectPr defaultSize="0" r:id="rId135">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>37</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>46</xdr:col>
+                <xdr:colOff>45720</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>495300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1182" r:id="rId134"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.AxMath" shapeId="1183" r:id="rId136">
+          <objectPr defaultSize="0" r:id="rId137">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>37</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>45</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>495300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.AxMath" shapeId="1183" r:id="rId136"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -10541,7 +10541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D21C1F-4B3E-47CF-9045-9295E966CC6A}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/Statistics table.xlsx
+++ b/Statistics table.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB2\Documents\GitHub\Metaheuristic-benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB2\Videos\Metaheuristic-benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9F995C-4FBE-4BB2-B8AF-C2C0DB4A181C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0940C54-F013-4B20-8177-E0DEABC80916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53BEEFDD-3203-4D15-BBC0-6DDE7F8CC76A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{53BEEFDD-3203-4D15-BBC0-6DDE7F8CC76A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$2:$AK$2</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="173">
   <si>
     <t>Sphere</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,13 +511,130 @@
   <si>
     <t>Ellipsoid
 (Elliptic)</t>
+  </si>
+  <si>
+    <t>reference index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adaptive Particle Swarm Optimization</t>
+  </si>
+  <si>
+    <t>A novel bee swarm optimization algorithm for numerical function optimization</t>
+  </si>
+  <si>
+    <t>Chaos-enhanced accelerated particle swarm optimization</t>
+  </si>
+  <si>
+    <t>Experimental Analysis of Bound Handling Techniques in Particle Swarm Optimization</t>
+  </si>
+  <si>
+    <t>Biogeography-based optimisation with chaos</t>
+  </si>
+  <si>
+    <t>Grey Wolf Optimizer</t>
+  </si>
+  <si>
+    <t>The Whale Optimization Algorithm</t>
+  </si>
+  <si>
+    <t>Hybrid Algorithm of Particle Swarm Optimization and Grey Wolf Optimizer for Improving Convergence Performance</t>
+  </si>
+  <si>
+    <t>Lévy Flight Trajectory-Based Whale Optimization Algorithm for Global Optimization</t>
+  </si>
+  <si>
+    <t>Chaotic whale optimization algorithm</t>
+  </si>
+  <si>
+    <t>一種改進的鯨魚優化算法</t>
+  </si>
+  <si>
+    <t>A hyper-heuristic for improving the initial population of whale optimization algorithm</t>
+  </si>
+  <si>
+    <t>An efficient double adaptive random spare reinforced whale optimization algorithm</t>
+  </si>
+  <si>
+    <t>An enhanced associative learning-based exploratory whale optimizer for global optimization</t>
+  </si>
+  <si>
+    <t>An Enhanced Whale Optimization Algorithm with Simplex Method</t>
+  </si>
+  <si>
+    <t>Chaotic particle swarm optimization with sigmoid-based acceleration coefficients for numerical function optimization</t>
+  </si>
+  <si>
+    <t>New binary whale optimization algorithm for discrete optimization problems</t>
+  </si>
+  <si>
+    <t>改进的鲸鱼优化算法及其应用</t>
+  </si>
+  <si>
+    <t>基于自適應權重和模擬退火的鯨魚優化算法</t>
+  </si>
+  <si>
+    <t>基于改進型鯨魚優化算法和最小二乘支持向量機的煉鋼終點預測模型研究</t>
+  </si>
+  <si>
+    <t>精英反向黃金正弦鯨魚算法及其工程優化研究</t>
+  </si>
+  <si>
+    <t>Enhanced whale optimization algorithm for maximum power point tracking of variable-speed wind generators</t>
+  </si>
+  <si>
+    <t>Improved Whale Optimization Algorithm applied to design PID plus second-order derivative controller for automatic voltage regulator system</t>
+  </si>
+  <si>
+    <t>Improved Whale Optimization Algorithm Based on Nonlinear Adaptive Weight and Golden Sine Operator</t>
+  </si>
+  <si>
+    <t>Multi-Strategy Ensemble Whale Optimization Algorithm and Its Application to Analog Circuits Intelligent Fault Diagnosis</t>
+  </si>
+  <si>
+    <t>Opposition based competitive grey wolf optimizer for EMG feature selection</t>
+  </si>
+  <si>
+    <t>一种离散鲸鱼算法及其应用</t>
+  </si>
+  <si>
+    <t>I-GWO and Ex-GWO: improved algorithms of the Grey Wolf Optimizer to solve global optimization problems</t>
+  </si>
+  <si>
+    <t>A novel enhanced whale optimization algorithm for global optimization</t>
+  </si>
+  <si>
+    <t>Improved Whale Optimization Algorithm for Solving Constrained Optimization Problems</t>
+  </si>
+  <si>
+    <t>Nature-inspired approach: An enhanced whale optimization algorithm for global optimization</t>
+  </si>
+  <si>
+    <t>A new mutation operator for real coded genetic algorithms</t>
+  </si>
+  <si>
+    <t>A new crossover operator for real coded genetic algorithms</t>
+  </si>
+  <si>
+    <t>An efficient real-coded genetic algorithm for real-parameter optimization</t>
+  </si>
+  <si>
+    <t>An new crossover operator for real-coded genetic algorithm with selective breeding based on difference between individuals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -545,6 +663,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -569,12 +696,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -602,9 +732,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1909,3691 +2043,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>281940</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>502920</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1029"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>510540</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1030"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>441960</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1031" name="Object 7" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1031"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1036" name="Object 12" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1036"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>43</xdr:col>
-          <xdr:colOff>236220</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>784860</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1037" name="Object 13" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1037"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>43</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>541020</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1038" name="Object 14" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1038"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>53</xdr:col>
-          <xdr:colOff>373380</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>830580</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1040" name="Object 16" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1040"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>160020</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>525780</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1041" name="Object 17" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1041"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>41</xdr:col>
-          <xdr:colOff>144780</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1042" name="Object 18" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1042"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>502920</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1043" name="Object 19" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1043"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>335280</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1046" name="Object 22" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1046"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>449580</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>502920</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1048" name="Object 24" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1048"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>41</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>426720</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1051" name="Object 27" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1051"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1061" name="Object 37" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1061"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>41</xdr:col>
-          <xdr:colOff>480060</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1063" name="Object 39" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1063"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>502920</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1066" name="Object 42" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1066"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>487680</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1067" name="Object 43" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1067"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1068" name="Object 44" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1068"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1074" name="Object 50" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1074"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>525780</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1077" name="Object 53" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1077"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>39</xdr:col>
-          <xdr:colOff>281940</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>502920</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1083" name="Object 59" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1083"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>358140</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1091" name="Object 67" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1091"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>39</xdr:col>
-          <xdr:colOff>502920</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1095" name="Object 71" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1095"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>39</xdr:col>
-          <xdr:colOff>510540</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1097" name="Object 73" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1097"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>55</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>411480</xdr:colOff>
-          <xdr:row>55</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1101" name="Object 77" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1101"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>56</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
-          <xdr:row>56</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1103" name="Object 79" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1103"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>59</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>41</xdr:col>
-          <xdr:colOff>312420</xdr:colOff>
-          <xdr:row>59</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1112" name="Object 88" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1112"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>62</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>41</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>62</xdr:row>
-          <xdr:rowOff>251460</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1117" name="Object 93" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1117"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>67</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>67</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1127" name="Object 103" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1127"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>70</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>39</xdr:col>
-          <xdr:colOff>350520</xdr:colOff>
-          <xdr:row>70</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1135" name="Object 111" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1135"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>167640</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>502920</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1139" name="Object 115" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1139"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>502920</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>502920</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1140" name="Object 116" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1140"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>52</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>822960</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1141" name="Object 117" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1141"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>39</xdr:col>
-          <xdr:colOff>502920</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1142" name="Object 118" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1142"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>388620</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1144" name="Object 120" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1144"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>45</xdr:col>
-          <xdr:colOff>487680</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>502920</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1145" name="Object 121" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1145"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>50</xdr:col>
-          <xdr:colOff>464820</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>944880</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1146" name="Object 122" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1146"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>56</xdr:col>
-          <xdr:colOff>167640</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1148" name="Object 124" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1148"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>487680</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>441960</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1149" name="Object 125" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1149"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>50</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1150" name="Object 126" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1150"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>51</xdr:col>
-          <xdr:colOff>53340</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>868680</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1151" name="Object 127" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1151"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>56</xdr:col>
-          <xdr:colOff>373380</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>868680</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1152" name="Object 128" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1152"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>47</xdr:col>
-          <xdr:colOff>106680</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>1082040</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1153" name="Object 129" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1153"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>48</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>1508760</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1154" name="Object 130" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1154"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>50</xdr:col>
-          <xdr:colOff>91440</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>2141220</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1156" name="Object 132" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1156"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>41</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>502920</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1158" name="Object 134" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1158"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>39</xdr:col>
-          <xdr:colOff>243840</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1159" name="Object 135" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1159"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>411480</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1160" name="Object 136" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1160"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>60</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
-          <xdr:row>60</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1163" name="Object 139" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1163"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>41</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>274320</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1164" name="Object 140" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1164"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>41</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1165" name="Object 141" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1165"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>64</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>39</xdr:col>
-          <xdr:colOff>586740</xdr:colOff>
-          <xdr:row>64</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1166" name="Object 142" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1166"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>66</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>41</xdr:col>
-          <xdr:colOff>548640</xdr:colOff>
-          <xdr:row>66</xdr:row>
-          <xdr:rowOff>495300</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1167" name="Object 143" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1167"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>525780</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>822960</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1168" name="Object 144" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1168"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>594360</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>495300</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1169" name="Object 145" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1169"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>41</xdr:col>
-          <xdr:colOff>350520</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>518160</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1170" name="Object 146" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1170"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>41</xdr:col>
-          <xdr:colOff>472440</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>518160</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1171" name="Object 147" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1171"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>65</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>41</xdr:col>
-          <xdr:colOff>594360</xdr:colOff>
-          <xdr:row>65</xdr:row>
-          <xdr:rowOff>502920</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1174" name="Object 150" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1174"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>63</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>63</xdr:row>
-          <xdr:rowOff>274320</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1175" name="Object 151" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1175"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>61</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>48</xdr:col>
-          <xdr:colOff>464820</xdr:colOff>
-          <xdr:row>61</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1176" name="Object 152" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1176"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>43</xdr:col>
-          <xdr:colOff>175260</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>243840</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1177" name="Object 153" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1177"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>39</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1178" name="Object 154" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1178"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1179" name="Object 155" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1179"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>39</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1180" name="Object 156" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1180"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170BDBBF-537F-4D20-B01F-3CE3CC756C2E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>541020</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1181" name="Object 157" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1181"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63379EA2-7463-475C-8045-CD0813C6108A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>68</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>46</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
-          <xdr:row>68</xdr:row>
-          <xdr:rowOff>495300</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1182" name="Object 158" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1182"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A00CF60-0AF5-4469-82F8-8164AC9D65C7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>37</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>69</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>45</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>69</xdr:row>
-          <xdr:rowOff>495300</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1183" name="Object 159" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1183"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B03ED1-5205-49A6-B751-0BA73A648BEB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -5934,11 +2383,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B794D04-4A65-4F2E-B38D-44D1CBB81CC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B794D04-4A65-4F2E-B38D-44D1CBB81CC2}">
   <dimension ref="A1:AK97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL70" sqref="AL70"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="199.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8856,1684 +5305,6 @@
     <ignoredError sqref="C1:AK1" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1029" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>281940</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>502920</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1029" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1030" r:id="rId6">
-          <objectPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>510540</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1030" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1031" r:id="rId8">
-          <objectPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>441960</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1031" r:id="rId8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1036" r:id="rId10">
-          <objectPr defaultSize="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>30480</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1036" r:id="rId10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1037" r:id="rId12">
-          <objectPr defaultSize="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>43</xdr:col>
-                <xdr:colOff>236220</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>784860</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1037" r:id="rId12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1038" r:id="rId14">
-          <objectPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>43</xdr:col>
-                <xdr:colOff>403860</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>541020</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1038" r:id="rId14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1040" r:id="rId16">
-          <objectPr defaultSize="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>53</xdr:col>
-                <xdr:colOff>373380</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>830580</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1040" r:id="rId16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1041" r:id="rId18">
-          <objectPr defaultSize="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>160020</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>525780</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1041" r:id="rId18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1042" r:id="rId20">
-          <objectPr defaultSize="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>41</xdr:col>
-                <xdr:colOff>144780</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1042" r:id="rId20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1043" r:id="rId22">
-          <objectPr defaultSize="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>502920</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1043" r:id="rId22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1046" r:id="rId24">
-          <objectPr defaultSize="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>335280</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1046" r:id="rId24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1048" r:id="rId26">
-          <objectPr defaultSize="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>449580</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>502920</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1048" r:id="rId26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1051" r:id="rId28">
-          <objectPr defaultSize="0" r:id="rId29">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>41</xdr:col>
-                <xdr:colOff>198120</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>426720</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1051" r:id="rId28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1061" r:id="rId30">
-          <objectPr defaultSize="0" r:id="rId31">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>45720</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>236220</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1061" r:id="rId30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1063" r:id="rId32">
-          <objectPr defaultSize="0" r:id="rId33">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>41</xdr:col>
-                <xdr:colOff>480060</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>236220</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1063" r:id="rId32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1066" r:id="rId34">
-          <objectPr defaultSize="0" r:id="rId35">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>502920</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1066" r:id="rId34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1067" r:id="rId36">
-          <objectPr defaultSize="0" r:id="rId37">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>487680</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1067" r:id="rId36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1068" r:id="rId38">
-          <objectPr defaultSize="0" r:id="rId39">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1068" r:id="rId38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1074" r:id="rId40">
-          <objectPr defaultSize="0" r:id="rId41">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>45</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1074" r:id="rId40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1077" r:id="rId42">
-          <objectPr defaultSize="0" r:id="rId43">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>525780</xdr:colOff>
-                <xdr:row>43</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1077" r:id="rId42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1083" r:id="rId44">
-          <objectPr defaultSize="0" r:id="rId45">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>39</xdr:col>
-                <xdr:colOff>281940</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>502920</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1083" r:id="rId44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1091" r:id="rId46">
-          <objectPr defaultSize="0" r:id="rId47">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>358140</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>236220</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1091" r:id="rId46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1095" r:id="rId48">
-          <objectPr defaultSize="0" r:id="rId49">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>39</xdr:col>
-                <xdr:colOff>502920</xdr:colOff>
-                <xdr:row>52</xdr:row>
-                <xdr:rowOff>236220</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1095" r:id="rId48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1097" r:id="rId50">
-          <objectPr defaultSize="0" r:id="rId51">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>39</xdr:col>
-                <xdr:colOff>510540</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>236220</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1097" r:id="rId50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1101" r:id="rId52">
-          <objectPr defaultSize="0" r:id="rId53">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>411480</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1101" r:id="rId52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1103" r:id="rId54">
-          <objectPr defaultSize="0" r:id="rId55">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
-                <xdr:row>56</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1103" r:id="rId54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1112" r:id="rId56">
-          <objectPr defaultSize="0" r:id="rId57">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>41</xdr:col>
-                <xdr:colOff>312420</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>236220</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1112" r:id="rId56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1117" r:id="rId58">
-          <objectPr defaultSize="0" r:id="rId59">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>41</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>251460</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1117" r:id="rId58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1127" r:id="rId60">
-          <objectPr defaultSize="0" r:id="rId61">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1127" r:id="rId60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1135" r:id="rId62">
-          <objectPr defaultSize="0" r:id="rId63">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>70</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>39</xdr:col>
-                <xdr:colOff>350520</xdr:colOff>
-                <xdr:row>70</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1135" r:id="rId62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1139" r:id="rId64">
-          <objectPr defaultSize="0" r:id="rId65">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>167640</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>502920</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1139" r:id="rId64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1140" r:id="rId66">
-          <objectPr defaultSize="0" r:id="rId67">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>502920</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>502920</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1140" r:id="rId66"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1141" r:id="rId68">
-          <objectPr defaultSize="0" r:id="rId69">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>52</xdr:col>
-                <xdr:colOff>579120</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>822960</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1141" r:id="rId68"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1142" r:id="rId70">
-          <objectPr defaultSize="0" r:id="rId71">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>39</xdr:col>
-                <xdr:colOff>502920</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1142" r:id="rId70"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1144" r:id="rId72">
-          <objectPr defaultSize="0" r:id="rId73">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>388620</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1144" r:id="rId72"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1145" r:id="rId74">
-          <objectPr defaultSize="0" r:id="rId75">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>45</xdr:col>
-                <xdr:colOff>487680</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>502920</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1145" r:id="rId74"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1146" r:id="rId76">
-          <objectPr defaultSize="0" r:id="rId77">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>50</xdr:col>
-                <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>944880</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1146" r:id="rId76"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1148" r:id="rId78">
-          <objectPr defaultSize="0" r:id="rId79">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>56</xdr:col>
-                <xdr:colOff>167640</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1148" r:id="rId78"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1149" r:id="rId80">
-          <objectPr defaultSize="0" r:id="rId81">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>487680</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>441960</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1149" r:id="rId80"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1150" r:id="rId82">
-          <objectPr defaultSize="0" r:id="rId83">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>50</xdr:col>
-                <xdr:colOff>320040</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1150" r:id="rId82"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1151" r:id="rId84">
-          <objectPr defaultSize="0" r:id="rId85">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>51</xdr:col>
-                <xdr:colOff>53340</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>868680</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1151" r:id="rId84"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1152" r:id="rId86">
-          <objectPr defaultSize="0" r:id="rId87">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>56</xdr:col>
-                <xdr:colOff>373380</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>868680</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1152" r:id="rId86"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1153" r:id="rId88">
-          <objectPr defaultSize="0" r:id="rId89">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>47</xdr:col>
-                <xdr:colOff>106680</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>1082040</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1153" r:id="rId88"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1154" r:id="rId90">
-          <objectPr defaultSize="0" r:id="rId91">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>48</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>1508760</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1154" r:id="rId90"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1156" r:id="rId92">
-          <objectPr defaultSize="0" r:id="rId93">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>50</xdr:col>
-                <xdr:colOff>91440</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>2141220</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1156" r:id="rId92"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1158" r:id="rId94">
-          <objectPr defaultSize="0" r:id="rId95">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>41</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>502920</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1158" r:id="rId94"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1159" r:id="rId96">
-          <objectPr defaultSize="0" r:id="rId97">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>39</xdr:col>
-                <xdr:colOff>243840</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1159" r:id="rId96"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1160" r:id="rId98">
-          <objectPr defaultSize="0" r:id="rId99">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>411480</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1160" r:id="rId98"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1163" r:id="rId100">
-          <objectPr defaultSize="0" r:id="rId101">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>198120</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>236220</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1163" r:id="rId100"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1164" r:id="rId102">
-          <objectPr defaultSize="0" r:id="rId103">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>41</xdr:col>
-                <xdr:colOff>297180</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>274320</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1164" r:id="rId102"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1165" r:id="rId104">
-          <objectPr defaultSize="0" r:id="rId105">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>41</xdr:col>
-                <xdr:colOff>579120</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1165" r:id="rId104"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1166" r:id="rId106">
-          <objectPr defaultSize="0" r:id="rId107">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>39</xdr:col>
-                <xdr:colOff>586740</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1166" r:id="rId106"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1167" r:id="rId108">
-          <objectPr defaultSize="0" r:id="rId109">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>41</xdr:col>
-                <xdr:colOff>548640</xdr:colOff>
-                <xdr:row>66</xdr:row>
-                <xdr:rowOff>495300</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1167" r:id="rId108"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1168" r:id="rId110">
-          <objectPr defaultSize="0" r:id="rId111">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>525780</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>822960</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1168" r:id="rId110"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1169" r:id="rId112">
-          <objectPr defaultSize="0" r:id="rId113">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>594360</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>495300</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1169" r:id="rId112"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1170" r:id="rId114">
-          <objectPr defaultSize="0" r:id="rId115">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>41</xdr:col>
-                <xdr:colOff>350520</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>518160</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1170" r:id="rId114"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1171" r:id="rId116">
-          <objectPr defaultSize="0" r:id="rId117">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>41</xdr:col>
-                <xdr:colOff>472440</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>518160</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1171" r:id="rId116"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1174" r:id="rId118">
-          <objectPr defaultSize="0" r:id="rId119">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>41</xdr:col>
-                <xdr:colOff>594360</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>502920</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1174" r:id="rId118"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1175" r:id="rId120">
-          <objectPr defaultSize="0" r:id="rId121">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>274320</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1175" r:id="rId120"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1176" r:id="rId122">
-          <objectPr defaultSize="0" r:id="rId123">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>48</xdr:col>
-                <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1176" r:id="rId122"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1177" r:id="rId124">
-          <objectPr defaultSize="0" r:id="rId125">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>43</xdr:col>
-                <xdr:colOff>175260</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>243840</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1177" r:id="rId124"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1178" r:id="rId126">
-          <objectPr defaultSize="0" r:id="rId127">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>39</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>50</xdr:row>
-                <xdr:rowOff>236220</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1178" r:id="rId126"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1179" r:id="rId128">
-          <objectPr defaultSize="0" r:id="rId129">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>15240</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1179" r:id="rId128"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1180" r:id="rId130">
-          <objectPr defaultSize="0" r:id="rId131">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>39</xdr:col>
-                <xdr:colOff>30480</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1180" r:id="rId130"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1181" r:id="rId132">
-          <objectPr defaultSize="0" r:id="rId133">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>541020</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1181" r:id="rId132"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1182" r:id="rId134">
-          <objectPr defaultSize="0" r:id="rId135">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>46</xdr:col>
-                <xdr:colOff>45720</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>495300</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1182" r:id="rId134"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.AxMath" shapeId="1183" r:id="rId136">
-          <objectPr defaultSize="0" r:id="rId137">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>37</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>45</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>495300</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.AxMath" shapeId="1183" r:id="rId136"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
 
@@ -11121,4 +5892,460 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA81FD1F-4199-4A31-9577-02699DAE9AD4}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="137.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{311072BD-6036-4D89-B076-3F0D70050501}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{8C6C88EA-FE36-4A06-AF49-BE6822A60C3D}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{1391FA93-F5B2-4B6A-B4C1-AED499064185}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{C275476A-FA03-4F8E-A2D5-69C7EF15F008}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{71DFD132-F178-4B04-AAF0-969C21438871}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{90BCBCE1-F0A7-420F-9DBD-4B2A9288822C}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{445D5567-70BB-4B89-A8C2-A2DCC51C3BDB}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{AC0B9DEF-147C-4C82-A0D7-726309A56CCB}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{E180DA6B-3D1D-4BF4-9D13-CC3447F8E46C}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{19E40E91-358B-45DC-B763-91318C4D2AA9}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{BFA2DBE2-B7FE-4463-A96B-C83947CACE22}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{B6B44107-7FBD-45C8-99D2-DE9C909DCDAC}"/>
+    <hyperlink ref="B36" r:id="rId13" xr:uid="{6B9EE2CE-FF56-445E-887E-8BD121B67EBF}"/>
+    <hyperlink ref="B35" r:id="rId14" xr:uid="{65FACAF7-C18A-47AB-B7B0-F06FB638B4BB}"/>
+    <hyperlink ref="B34" r:id="rId15" xr:uid="{8DD95F7B-E0EA-4585-9B43-C9F076518A8D}"/>
+    <hyperlink ref="B33" r:id="rId16" xr:uid="{E5C80085-D994-468E-B8EC-78F049FCB38C}"/>
+    <hyperlink ref="B32" r:id="rId17" xr:uid="{319ED7B4-2C0E-401C-BA43-AC7086DA359A}"/>
+    <hyperlink ref="B31" r:id="rId18" xr:uid="{BB0F69CD-9981-49C4-9FB2-ED81FA6BA003}"/>
+    <hyperlink ref="B30" r:id="rId19" xr:uid="{7CE4D8ED-9A43-43B8-9F87-5CE4AD792318}"/>
+    <hyperlink ref="B29" r:id="rId20" xr:uid="{B6A0A427-64B8-4F13-97D9-4F413F689D58}"/>
+    <hyperlink ref="B28" r:id="rId21" xr:uid="{61EF37D6-21D9-483E-A562-BB53CDEA0AE6}"/>
+    <hyperlink ref="B27" r:id="rId22" xr:uid="{84C915BC-1B36-4A83-A727-12608718690E}"/>
+    <hyperlink ref="B26" r:id="rId23" xr:uid="{041656DA-B57F-40FA-BFC2-684E5B83B9A0}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{AF45254C-455E-4840-B7AB-0A9476FAF439}"/>
+    <hyperlink ref="B24" r:id="rId25" xr:uid="{1C0F85FB-849D-40AD-93FC-A437160E74E4}"/>
+    <hyperlink ref="B23" r:id="rId26" xr:uid="{E6AE17D0-3651-4707-BF7A-1CD7874BC83B}"/>
+    <hyperlink ref="B22" r:id="rId27" xr:uid="{823F0614-9294-4C58-AAE4-8D9DC15D539C}"/>
+    <hyperlink ref="B21" r:id="rId28" xr:uid="{6D346163-C99D-4C5A-8C24-0189C08A49ED}"/>
+    <hyperlink ref="B20" r:id="rId29" xr:uid="{37B2FD79-7697-4E53-83DE-F99846BCA8FD}"/>
+    <hyperlink ref="B19" r:id="rId30" xr:uid="{CBF0E192-1129-4D58-B6E7-F2378A4D22B1}"/>
+    <hyperlink ref="B18" r:id="rId31" xr:uid="{34DA0101-56C4-4D79-ACC6-02DCCFFAA4DC}"/>
+    <hyperlink ref="B17" r:id="rId32" xr:uid="{B3D33EFC-E8D4-40FD-9718-84CDB80DB744}"/>
+    <hyperlink ref="B16" r:id="rId33" xr:uid="{B5963CED-BFE0-4635-BC0B-0835D15BBEB1}"/>
+    <hyperlink ref="B15" r:id="rId34" xr:uid="{442621AA-2F82-4C87-A0E0-903F941F8F07}"/>
+    <hyperlink ref="B14" r:id="rId35" xr:uid="{DD7056F6-C8F5-484C-A3DD-73CBFDB78B43}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+</worksheet>
 </file>
--- a/Statistics table.xlsx
+++ b/Statistics table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB2\Videos\Metaheuristic-benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0940C54-F013-4B20-8177-E0DEABC80916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2BAE31-CFE4-4C78-91EC-C468FF30B90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{53BEEFDD-3203-4D15-BBC0-6DDE7F8CC76A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53BEEFDD-3203-4D15-BBC0-6DDE7F8CC76A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="171">
   <si>
     <t>Sphere</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,16 +235,10 @@
   </si>
   <si>
     <t>Levy and Montalvo 1</t>
-  </si>
-  <si>
-    <t>Levy and Montalvo 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Levy and Montalvo 2</t>
-  </si>
-  <si>
-    <t>Levy and Montalvo 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -259,11 +253,6 @@
   </si>
   <si>
     <t>Schaffer</t>
-  </si>
-  <si>
-    <t>Ellipsoid
-(Elliptic)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SumSquare
@@ -509,10 +498,6 @@
     <t>Inverted Cosine Mixture</t>
   </si>
   <si>
-    <t>Ellipsoid
-(Elliptic)</t>
-  </si>
-  <si>
     <t>reference index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -628,6 +613,16 @@
   </si>
   <si>
     <t>An new crossover operator for real-coded genetic algorithm with selective breeding based on difference between individuals</t>
+  </si>
+  <si>
+    <t>Elliptic
+Ellipsoid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elliptic
+(Ellipsoid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -929,8 +924,8 @@
                   <c:v>Bohachevsky 1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Ellipsoid
-(Elliptic)</c:v>
+                  <c:v>Elliptic
+Ellipsoid)</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>Drop wave</c:v>
@@ -942,7 +937,7 @@
                   <c:v>Ellipsoidal</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Levy and Montalvo 2</c:v>
+                  <c:v>Levy and Montalvo 1</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>Easom</c:v>
@@ -952,7 +947,7 @@
 (Sum of different power)</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>Levy and Montalvo 1</c:v>
+                  <c:v>Levy and Montalvo 2</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>Holzman</c:v>
@@ -2386,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B794D04-4A65-4F2E-B38D-44D1CBB81CC2}">
   <dimension ref="A1:AK97"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="199.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2400,7 +2395,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="199.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C1" s="2">
         <f t="shared" ref="C1:AK1" si="0">SUM(C3:C97)</f>
@@ -2545,10 +2540,10 @@
     </row>
     <row r="2" spans="1:37" ht="199.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -2875,7 +2870,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -3118,7 +3113,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -3271,7 +3266,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -3703,7 +3698,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -3727,7 +3722,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -3946,7 +3941,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -4000,7 +3995,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -4060,7 +4055,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
@@ -4153,7 +4148,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H27" s="1">
         <v>1</v>
@@ -4519,7 +4514,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L36" s="1">
         <v>1</v>
@@ -4573,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L39" s="1">
         <v>1</v>
@@ -4603,7 +4598,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L41" s="1">
         <v>1</v>
@@ -4618,7 +4613,7 @@
         <v>8</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -4678,7 +4673,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N43" s="1">
         <v>1</v>
@@ -4696,7 +4691,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N44" s="1">
         <v>1</v>
@@ -4711,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N45" s="1">
         <v>1</v>
@@ -4723,7 +4718,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -4790,7 +4785,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K48" s="1">
         <v>1</v>
@@ -4811,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="T49" s="1">
         <v>1</v>
@@ -4901,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AE55" s="1">
         <v>1</v>
@@ -4937,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AE58" s="1">
         <v>1</v>
@@ -4949,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AE59" s="1">
         <v>1</v>
@@ -4985,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AE62" s="1">
         <v>1</v>
@@ -4997,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AE63" s="1">
         <v>1</v>
@@ -5021,7 +5016,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AH65" s="1">
         <v>1</v>
@@ -5042,7 +5037,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AH66" s="1">
         <v>1</v>
@@ -5057,7 +5052,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AH67" s="1">
         <v>1</v>
@@ -5072,7 +5067,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AH68" s="1">
         <v>1</v>
@@ -5093,7 +5088,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH69" s="1">
         <v>1</v>
@@ -5111,7 +5106,7 @@
         <v>4</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AH70" s="1">
         <v>1</v>
@@ -5132,7 +5127,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AJ71" s="1">
         <v>1</v>
@@ -5313,7 +5308,7 @@
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5326,15 +5321,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="6">
         <v>35</v>
@@ -5342,7 +5337,7 @@
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B3" s="6">
         <v>33</v>
@@ -5350,7 +5345,7 @@
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="6">
         <v>33</v>
@@ -5358,7 +5353,7 @@
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" s="6">
         <v>32</v>
@@ -5366,7 +5361,7 @@
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" s="6">
         <v>30</v>
@@ -5374,7 +5369,7 @@
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B7" s="6">
         <v>29</v>
@@ -5382,7 +5377,7 @@
     </row>
     <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B8" s="6">
         <v>25</v>
@@ -5390,7 +5385,7 @@
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9" s="6">
         <v>24</v>
@@ -5398,7 +5393,7 @@
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="6">
         <v>23</v>
@@ -5406,7 +5401,7 @@
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B11" s="6">
         <v>23</v>
@@ -5414,7 +5409,7 @@
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B12" s="6">
         <v>23</v>
@@ -5422,7 +5417,7 @@
     </row>
     <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B13" s="6">
         <v>21</v>
@@ -5430,7 +5425,7 @@
     </row>
     <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B14" s="6">
         <v>20</v>
@@ -5462,7 +5457,7 @@
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B18" s="6">
         <v>14</v>
@@ -5470,7 +5465,7 @@
     </row>
     <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B19" s="6">
         <v>13</v>
@@ -5478,7 +5473,7 @@
     </row>
     <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B20" s="6">
         <v>13</v>
@@ -5486,7 +5481,7 @@
     </row>
     <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B21" s="6">
         <v>13</v>
@@ -5494,7 +5489,7 @@
     </row>
     <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B22" s="6">
         <v>13</v>
@@ -5510,7 +5505,7 @@
     </row>
     <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B24" s="6">
         <v>11</v>
@@ -5518,7 +5513,7 @@
     </row>
     <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B25" s="6">
         <v>8</v>
@@ -5526,7 +5521,7 @@
     </row>
     <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B26" s="6">
         <v>8</v>
@@ -5534,7 +5529,7 @@
     </row>
     <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B27" s="6">
         <v>7</v>
@@ -5542,7 +5537,7 @@
     </row>
     <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B28" s="6">
         <v>5</v>
@@ -5550,7 +5545,7 @@
     </row>
     <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B29" s="6">
         <v>5</v>
@@ -5558,7 +5553,7 @@
     </row>
     <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" s="7">
         <v>4</v>
@@ -5566,7 +5561,7 @@
     </row>
     <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B31" s="6">
         <v>4</v>
@@ -5580,9 +5575,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>134</v>
+    <row r="33" spans="1:2" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="B33" s="6">
         <v>4</v>
@@ -5606,7 +5601,7 @@
     </row>
     <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B36" s="6">
         <v>4</v>
@@ -5614,7 +5609,7 @@
     </row>
     <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" s="6">
         <v>4</v>
@@ -5622,7 +5617,7 @@
     </row>
     <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B38" s="8">
         <v>3</v>
@@ -5630,7 +5625,7 @@
     </row>
     <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B39" s="8">
         <v>3</v>
@@ -5638,7 +5633,7 @@
     </row>
     <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40" s="8">
         <v>3</v>
@@ -5646,7 +5641,7 @@
     </row>
     <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B41" s="8">
         <v>2</v>
@@ -5654,7 +5649,7 @@
     </row>
     <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B42" s="8">
         <v>2</v>
@@ -5662,7 +5657,7 @@
     </row>
     <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B43" s="8">
         <v>2</v>
@@ -5670,7 +5665,7 @@
     </row>
     <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B44" s="8">
         <v>2</v>
@@ -5686,7 +5681,7 @@
     </row>
     <row r="46" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B46" s="8">
         <v>2</v>
@@ -5710,7 +5705,7 @@
     </row>
     <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B49" s="8">
         <v>2</v>
@@ -5734,7 +5729,7 @@
     </row>
     <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B52" s="8">
         <v>2</v>
@@ -5742,7 +5737,7 @@
     </row>
     <row r="53" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B53" s="8">
         <v>1</v>
@@ -5750,7 +5745,7 @@
     </row>
     <row r="54" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B54" s="8">
         <v>1</v>
@@ -5758,7 +5753,7 @@
     </row>
     <row r="55" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B55" s="8">
         <v>1</v>
@@ -5766,7 +5761,7 @@
     </row>
     <row r="56" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B56" s="8">
         <v>1</v>
@@ -5774,7 +5769,7 @@
     </row>
     <row r="57" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B57" s="8">
         <v>1</v>
@@ -5782,7 +5777,7 @@
     </row>
     <row r="58" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B58" s="8">
         <v>1</v>
@@ -5790,7 +5785,7 @@
     </row>
     <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B59" s="8">
         <v>1</v>
@@ -5798,7 +5793,7 @@
     </row>
     <row r="60" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B60" s="8">
         <v>1</v>
@@ -5806,7 +5801,7 @@
     </row>
     <row r="61" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B61" s="8">
         <v>1</v>
@@ -5814,7 +5809,7 @@
     </row>
     <row r="62" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B62" s="8">
         <v>1</v>
@@ -5822,7 +5817,7 @@
     </row>
     <row r="63" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B63" s="8">
         <v>1</v>
@@ -5890,7 +5885,8 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5898,7 +5894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA81FD1F-4199-4A31-9577-02699DAE9AD4}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5912,13 +5908,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
@@ -5926,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1">
         <v>2009</v>
@@ -5937,7 +5933,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1">
         <v>2010</v>
@@ -5948,7 +5944,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1">
         <v>2013</v>
@@ -5959,7 +5955,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1">
         <v>2012</v>
@@ -5970,7 +5966,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C6" s="1">
         <v>2014</v>
@@ -5981,7 +5977,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C7" s="1">
         <v>2014</v>
@@ -5992,7 +5988,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1">
         <v>2016</v>
@@ -6003,7 +5999,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C9" s="1">
         <v>2017</v>
@@ -6014,7 +6010,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C10" s="1">
         <v>2017</v>
@@ -6025,7 +6021,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C11" s="1">
         <v>2018</v>
@@ -6036,7 +6032,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C12" s="1">
         <v>2018</v>
@@ -6047,7 +6043,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C13" s="1">
         <v>2019</v>
@@ -6058,7 +6054,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C14" s="1">
         <v>2020</v>
@@ -6069,7 +6065,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C15" s="1">
         <v>2020</v>
@@ -6080,7 +6076,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C16" s="1">
         <v>2019</v>
@@ -6091,7 +6087,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C17" s="1">
         <v>2019</v>
@@ -6102,7 +6098,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C18" s="1">
         <v>2020</v>
@@ -6113,7 +6109,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C19" s="1">
         <v>2019</v>
@@ -6124,7 +6120,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C20" s="1">
         <v>2019</v>
@@ -6135,7 +6131,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C21" s="1">
         <v>2019</v>
@@ -6146,7 +6142,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C22" s="1">
         <v>2019</v>
@@ -6157,7 +6153,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C23" s="1">
         <v>2020</v>
@@ -6168,7 +6164,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C24" s="1">
         <v>2020</v>
@@ -6179,7 +6175,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C25" s="1">
         <v>2020</v>
@@ -6190,7 +6186,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C26" s="1">
         <v>2020</v>
@@ -6201,7 +6197,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C27" s="1">
         <v>2020</v>
@@ -6212,7 +6208,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C28" s="1">
         <v>2020</v>
@@ -6223,7 +6219,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C29" s="1">
         <v>2019</v>
@@ -6234,7 +6230,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C30" s="1">
         <v>2021</v>
@@ -6245,7 +6241,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C31" s="1">
         <v>2021</v>
@@ -6256,7 +6252,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C32" s="1">
         <v>2021</v>
@@ -6267,7 +6263,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C33" s="1">
         <v>2007</v>
@@ -6278,7 +6274,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C34" s="1">
         <v>2007</v>
@@ -6289,7 +6285,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C35" s="1">
         <v>2010</v>
@@ -6300,7 +6296,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C36" s="1">
         <v>2012</v>
